--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_NhatMinh.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_NhatMinh.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="76">
   <si>
     <t>STT</t>
   </si>
@@ -264,10 +264,22 @@
     <t>Thiết bị không nhận sim</t>
   </si>
   <si>
-    <t>Thiết bị lỗi GPS</t>
+    <t>Thiết bị có dấu hiệu nước vào oxi hóa mạch</t>
   </si>
   <si>
-    <t>Thiết bị có dấu hiệu nước vào oxi hóa mạch</t>
+    <t>Không khắc phục được</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Khách chèn sim bị lỗi</t>
+  </si>
+  <si>
+    <t>Xử lý lại sim</t>
   </si>
 </sst>
 </file>
@@ -488,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -719,27 +731,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -761,7 +752,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,39 +1121,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1180,58 +1198,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1256,23 +1274,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1298,7 +1316,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1329,7 +1347,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1358,7 +1376,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1387,7 +1405,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1416,7 +1434,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1445,7 +1463,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1492,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1505,7 +1523,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1534,7 +1552,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1563,7 +1581,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1592,7 +1610,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3308,6 +3326,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3319,13 +3344,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3369,39 +3387,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3446,58 +3464,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3522,23 +3540,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3564,7 +3582,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3595,7 +3613,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3624,7 +3642,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3653,7 +3671,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3682,7 +3700,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3711,7 +3729,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3740,7 +3758,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3771,7 +3789,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3800,7 +3818,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3829,7 +3847,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3858,7 +3876,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5574,13 +5592,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5592,6 +5603,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5635,39 +5653,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5712,58 +5730,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5788,23 +5806,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5830,7 +5848,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5861,7 +5879,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5890,7 +5908,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5919,7 +5937,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5948,7 +5966,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5977,7 +5995,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6006,7 +6024,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6037,7 +6055,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6066,7 +6084,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6095,7 +6113,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6124,7 +6142,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7840,13 +7858,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7858,6 +7869,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7901,39 +7919,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -7978,58 +7996,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8054,23 +8072,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8096,7 +8114,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8127,7 +8145,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8156,7 +8174,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8185,7 +8203,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8214,7 +8232,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8243,7 +8261,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8272,7 +8290,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8303,7 +8321,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8332,7 +8350,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8361,7 +8379,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8390,7 +8408,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10106,13 +10124,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10124,6 +10135,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10167,39 +10185,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10244,58 +10262,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10320,23 +10338,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10362,7 +10380,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10393,7 +10411,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10422,7 +10440,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10451,7 +10469,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10480,7 +10498,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10509,7 +10527,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10538,7 +10556,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10569,7 +10587,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10598,7 +10616,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10627,7 +10645,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10656,7 +10674,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12372,13 +12390,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12390,6 +12401,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12400,8 +12418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12433,41 +12451,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12512,58 +12530,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12582,29 +12600,29 @@
       <c r="G5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="78" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12614,7 +12632,9 @@
       <c r="B6" s="61">
         <v>44882</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44886</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>44</v>
       </c>
@@ -12627,7 +12647,9 @@
       <c r="G6" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="94" t="s">
+        <v>74</v>
+      </c>
       <c r="I6" s="63" t="s">
         <v>68</v>
       </c>
@@ -12638,15 +12660,25 @@
         <v>66</v>
       </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>75</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12661,7 +12693,9 @@
       <c r="B7" s="61">
         <v>44882</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44886</v>
+      </c>
       <c r="D7" s="59" t="s">
         <v>44</v>
       </c>
@@ -12675,27 +12709,37 @@
         <v>65</v>
       </c>
       <c r="H7" s="62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="62" t="s">
         <v>70</v>
       </c>
       <c r="K7" s="65" t="s">
         <v>66</v>
       </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>71</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12724,7 +12768,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12753,7 +12797,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12782,7 +12826,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12811,7 +12855,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12840,7 +12884,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12871,7 +12915,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12900,7 +12944,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12929,7 +12973,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12958,7 +13002,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13076,7 +13120,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -13108,7 +13152,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -13417,7 +13461,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -13577,7 +13621,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -13609,7 +13653,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14674,13 +14718,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14692,6 +14729,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14735,39 +14779,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14812,58 +14856,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14888,23 +14932,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14930,7 +14974,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14961,7 +15005,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14990,7 +15034,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15019,7 +15063,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15048,7 +15092,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15077,7 +15121,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15106,7 +15150,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15137,7 +15181,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15166,7 +15210,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15195,7 +15239,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15224,7 +15268,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16940,13 +16984,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16958,6 +16995,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17001,39 +17045,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17078,58 +17122,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17154,23 +17198,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17196,7 +17240,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17227,7 +17271,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17256,7 +17300,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17285,7 +17329,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17314,7 +17358,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17343,7 +17387,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17372,7 +17416,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17403,7 +17447,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17432,7 +17476,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17461,7 +17505,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17490,7 +17534,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19206,13 +19250,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19224,6 +19261,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19267,39 +19311,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="80"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19344,58 +19388,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="79"/>
+      <c r="M4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="92" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="79" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="84"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19420,23 +19464,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="79"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="92"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19462,7 +19506,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="87" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19493,7 +19537,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="88"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19522,7 +19566,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="88"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19551,7 +19595,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="88"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19580,7 +19624,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="88"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19609,7 +19653,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="88"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19638,7 +19682,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="87" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19669,7 +19713,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="88"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19698,7 +19742,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="88"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19727,7 +19771,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="88"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19756,7 +19800,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="89"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20987,6 +21031,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -20998,13 +21049,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
